--- a/outputs/SORs/SOR Testing_AMC India Middle East.xlsx
+++ b/outputs/SORs/SOR Testing_AMC India Middle East.xlsx
@@ -12,16 +12,15 @@
     <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Twinsburg Ohio" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Florence Kentucky" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Grafton Wisconsin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mumbai India" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Pune India" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Apodaca Mexico" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mumbai India" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Pune India" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Apodaca Mexico" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -129,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Florence Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafton Wisconsin</t>
   </si>
   <si>
     <t xml:space="preserve">Mumbai India</t>
@@ -150,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -160,7 +156,6 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -196,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -207,7 +202,6 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,185 +690,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -2500,18 +2315,10 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8" t="n">
         <v>0</v>
       </c>
@@ -2648,55 +2455,86 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="n">
         <v>0</v>
       </c>
     </row>
